--- a/临时/简历V.xlsx
+++ b/临时/简历V.xlsx
@@ -133,7 +133,7 @@
   <si>
     <t>1、能独立编制建筑与装饰工程预结算。
 2、熟练操作广联达、斯维尔、宏业、CAD专业软件、熟悉office、photoshop办公软件
-3、持有执业资格证书：造价员、资料员、质量员
+3、持有执业资格证书：造价员、资料员、 质量员
 4、团队合作意识强烈、具备独立学习能力
 5、职称：助理工程师
 吃苦耐劳,工作积极主动，能够独立工作，独立思考，不怕困难，勤奋诚实，具备团队协作精神，身体健康、积极向上，敢做敢想，不断挑战自我。善于从工作学习中总结经验教训。</t>
@@ -180,6 +180,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,7 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,17 +230,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,21 +242,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,6 +276,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -309,15 +315,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,13 +332,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,121 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,37 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,17 +661,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,36 +677,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,20 +698,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +743,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:N80"/>
+      <selection activeCell="C107" sqref="C107:N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
